--- a/python/ilin/SD t1=6 t2=2.xlsx
+++ b/python/ilin/SD t1=6 t2=2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00123</t>
+          <t>0.000225</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000945</t>
+          <t>6.18e-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000297</t>
+          <t>0.000275</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000327</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>0.000252</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.000166</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000111</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000162</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.18e-05</t>
+          <t>2.95e-05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.07e-05</t>
+          <t>1.75e-05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.75e-05</t>
+          <t>0.000271</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>9.4e-05</t>
         </is>
       </c>
     </row>

--- a/python/ilin/SD t1=6 t2=2.xlsx
+++ b/python/ilin/SD t1=6 t2=2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.000225</t>
+          <t>0.000128</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.18e-05</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000275</t>
+          <t>0.000119</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000104</t>
+          <t>3.68e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000252</t>
+          <t>0.00023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>0.00016</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>5.08e-06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000123</t>
+          <t>0.000124</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.95e-05</t>
+          <t>4e-05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.75e-05</t>
+          <t>1.45e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000271</t>
+          <t>1.33e-06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>1.52e-06</t>
         </is>
       </c>
     </row>

--- a/python/ilin/SD t1=6 t2=2.xlsx
+++ b/python/ilin/SD t1=6 t2=2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.000128</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>8.81e-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>0.000126</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.68e-05</t>
+          <t>8.23e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00023</t>
+          <t>5.07e-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00016</t>
+          <t>4.28e-05</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08e-06</t>
+          <t>1.45e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000124</t>
+          <t>0.000188</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>3.11e-05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.45e-06</t>
+          <t>1.55e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.33e-06</t>
+          <t>1.48e-06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">

--- a/python/ilin/SD t1=6 t2=2.xlsx
+++ b/python/ilin/SD t1=6 t2=2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.81e-05</t>
+          <t>3.88e-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000126</t>
+          <t>4.22e-05</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.23e-05</t>
+          <t>1.83e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07e-05</t>
+          <t>5.59e-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.28e-05</t>
+          <t>6.82e-05</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.45e-05</t>
+          <t>2.04e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000188</t>
+          <t>1.16e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.11e-05</t>
+          <t>4.55e-05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.55e-06</t>
+          <t>1.51e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.52e-06</t>
+          <t>1.48e-06</t>
         </is>
       </c>
     </row>

--- a/python/ilin/SD t1=6 t2=2.xlsx
+++ b/python/ilin/SD t1=6 t2=2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.000119</t>
+          <t>0.000634</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.88e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.22e-05</t>
+          <t>0.00213</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83e-05</t>
+          <t>7.61e-05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.59e-05</t>
+          <t>0.000131</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6.82e-05</t>
+          <t>0.000708</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.04e-05</t>
+          <t>4.79e-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.16e-05</t>
+          <t>6.09e-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.55e-05</t>
+          <t>1.91e-05</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.51e-06</t>
+          <t>1.44e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.48e-06</t>
+          <t>1.44e-06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.48e-06</t>
+          <t>1.52e-06</t>
         </is>
       </c>
     </row>
